--- a/data/pca/factorExposure/factorExposure_2011-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +723,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.01604746018599158</v>
+        <v>0.01577428007208045</v>
       </c>
       <c r="C2">
-        <v>0.03456173866409623</v>
+        <v>0.001558187374464896</v>
       </c>
       <c r="D2">
-        <v>-0.01838888197813723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0334925462414896</v>
+      </c>
+      <c r="E2">
+        <v>0.01378693791232209</v>
+      </c>
+      <c r="F2">
+        <v>-0.0369242111807668</v>
+      </c>
+      <c r="G2">
+        <v>0.01814867001419485</v>
+      </c>
+      <c r="H2">
+        <v>-0.002395669954852028</v>
+      </c>
+      <c r="I2">
+        <v>0.009177099911970235</v>
+      </c>
+      <c r="J2">
+        <v>-0.05654328131943055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +787,60 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.08209223993575647</v>
+        <v>0.09568210000027365</v>
       </c>
       <c r="C4">
-        <v>0.0572755240914186</v>
+        <v>0.04404938081742899</v>
       </c>
       <c r="D4">
-        <v>-0.07225182410628918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06925129563478093</v>
+      </c>
+      <c r="E4">
+        <v>-0.02236373093455373</v>
+      </c>
+      <c r="F4">
+        <v>-0.06757142246304727</v>
+      </c>
+      <c r="G4">
+        <v>-0.02405628111571591</v>
+      </c>
+      <c r="H4">
+        <v>0.0211744949970564</v>
+      </c>
+      <c r="I4">
+        <v>-0.07080785292290756</v>
+      </c>
+      <c r="J4">
+        <v>0.04440631586448941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +851,380 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1151002024137698</v>
+        <v>0.1292347429565183</v>
       </c>
       <c r="C6">
-        <v>0.04211340983073551</v>
+        <v>-9.684858888826663e-05</v>
       </c>
       <c r="D6">
-        <v>-0.01158444993646939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03653223458554778</v>
+      </c>
+      <c r="E6">
+        <v>0.03190575286911623</v>
+      </c>
+      <c r="F6">
+        <v>-0.02808789408250927</v>
+      </c>
+      <c r="G6">
+        <v>-0.0410346236180645</v>
+      </c>
+      <c r="H6">
+        <v>-0.1930155827564048</v>
+      </c>
+      <c r="I6">
+        <v>0.01228130491600632</v>
+      </c>
+      <c r="J6">
+        <v>0.4370607447343403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.06852160117275591</v>
+        <v>0.0702615684846194</v>
       </c>
       <c r="C7">
-        <v>0.04713142125023537</v>
+        <v>0.04135619014846541</v>
       </c>
       <c r="D7">
-        <v>-0.03457774028663748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05133134323398563</v>
+      </c>
+      <c r="E7">
+        <v>0.01223070217920509</v>
+      </c>
+      <c r="F7">
+        <v>-0.05081731002863605</v>
+      </c>
+      <c r="G7">
+        <v>0.009789961116140508</v>
+      </c>
+      <c r="H7">
+        <v>0.01386363476224912</v>
+      </c>
+      <c r="I7">
+        <v>-0.03516720211882824</v>
+      </c>
+      <c r="J7">
+        <v>-0.05652454982087168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04075227958637483</v>
+        <v>0.04214970332141783</v>
       </c>
       <c r="C8">
-        <v>0.0005963659064763542</v>
+        <v>0.02805551118821147</v>
       </c>
       <c r="D8">
-        <v>-0.06284182122497581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01149086617784162</v>
+      </c>
+      <c r="E8">
+        <v>-0.01394176783230221</v>
+      </c>
+      <c r="F8">
+        <v>-0.07904384309624944</v>
+      </c>
+      <c r="G8">
+        <v>-0.0476927686947444</v>
+      </c>
+      <c r="H8">
+        <v>-0.01553094537255689</v>
+      </c>
+      <c r="I8">
+        <v>-0.1107634719313868</v>
+      </c>
+      <c r="J8">
+        <v>0.02700629692004484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.07364821946052588</v>
+        <v>0.08364684284410796</v>
       </c>
       <c r="C9">
-        <v>0.04286550775689476</v>
+        <v>0.04558869198582261</v>
       </c>
       <c r="D9">
-        <v>-0.07531701290045352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05688564689649176</v>
+      </c>
+      <c r="E9">
+        <v>-0.01388172476145614</v>
+      </c>
+      <c r="F9">
+        <v>-0.05318533461763714</v>
+      </c>
+      <c r="G9">
+        <v>-0.04331066360962506</v>
+      </c>
+      <c r="H9">
+        <v>0.01875846794334311</v>
+      </c>
+      <c r="I9">
+        <v>-0.07125084399962978</v>
+      </c>
+      <c r="J9">
+        <v>0.0441100503426004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02320122849833248</v>
+        <v>0.06156588982533637</v>
       </c>
       <c r="C10">
-        <v>0.0263418259717118</v>
+        <v>-0.1964801115101724</v>
       </c>
       <c r="D10">
-        <v>0.1742058662834554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.02587801921834731</v>
+      </c>
+      <c r="E10">
+        <v>0.01146211584269067</v>
+      </c>
+      <c r="F10">
+        <v>-0.05373524373091195</v>
+      </c>
+      <c r="G10">
+        <v>0.03537554059738072</v>
+      </c>
+      <c r="H10">
+        <v>-0.03750816491254286</v>
+      </c>
+      <c r="I10">
+        <v>0.06579281816182513</v>
+      </c>
+      <c r="J10">
+        <v>-0.009390321815769662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0714226060555628</v>
+        <v>0.0755187404580618</v>
       </c>
       <c r="C11">
-        <v>0.03439823223951879</v>
+        <v>0.04907080910413655</v>
       </c>
       <c r="D11">
-        <v>-0.06391367395807412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0449281038755223</v>
+      </c>
+      <c r="E11">
+        <v>0.01410344629247324</v>
+      </c>
+      <c r="F11">
+        <v>-0.03519564094900088</v>
+      </c>
+      <c r="G11">
+        <v>-0.06021111929183411</v>
+      </c>
+      <c r="H11">
+        <v>0.0374740386198236</v>
+      </c>
+      <c r="I11">
+        <v>-0.06431998388781393</v>
+      </c>
+      <c r="J11">
+        <v>-0.01857483223294847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.06855327084548818</v>
+        <v>0.07283481387224471</v>
       </c>
       <c r="C12">
-        <v>0.04443190100601432</v>
+        <v>0.03676525452654118</v>
       </c>
       <c r="D12">
-        <v>-0.04969971230164479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0477935365827177</v>
+      </c>
+      <c r="E12">
+        <v>-0.001676288413911108</v>
+      </c>
+      <c r="F12">
+        <v>-0.02853955420103647</v>
+      </c>
+      <c r="G12">
+        <v>-0.03237346918387232</v>
+      </c>
+      <c r="H12">
+        <v>0.009627397308842271</v>
+      </c>
+      <c r="I12">
+        <v>-0.08882975239037098</v>
+      </c>
+      <c r="J12">
+        <v>-0.02425457035454467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.07490898842784725</v>
+        <v>0.06884884255921984</v>
       </c>
       <c r="C13">
-        <v>0.04791544290369974</v>
+        <v>0.03271800630380391</v>
       </c>
       <c r="D13">
-        <v>-0.05796517516555721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04395480906381936</v>
+      </c>
+      <c r="E13">
+        <v>-0.03863574289949769</v>
+      </c>
+      <c r="F13">
+        <v>-0.03650335690659526</v>
+      </c>
+      <c r="G13">
+        <v>-0.0172208145902027</v>
+      </c>
+      <c r="H13">
+        <v>0.03010360164550086</v>
+      </c>
+      <c r="I13">
+        <v>-0.09237871408764151</v>
+      </c>
+      <c r="J13">
+        <v>-0.04457597704879514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03070066717443564</v>
+        <v>0.04151992414053574</v>
       </c>
       <c r="C14">
-        <v>0.02648499955960712</v>
+        <v>0.00446210550760596</v>
       </c>
       <c r="D14">
-        <v>-0.008245746521366408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03148729043317355</v>
+      </c>
+      <c r="E14">
+        <v>-0.005251027958191909</v>
+      </c>
+      <c r="F14">
+        <v>-0.0209827883156745</v>
+      </c>
+      <c r="G14">
+        <v>-0.03628663105559542</v>
+      </c>
+      <c r="H14">
+        <v>0.06120500079047499</v>
+      </c>
+      <c r="I14">
+        <v>-0.04686850192310923</v>
+      </c>
+      <c r="J14">
+        <v>0.0421704170610308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.05135030157044816</v>
+        <v>0.04392692245783233</v>
       </c>
       <c r="C15">
-        <v>0.007955257654837046</v>
+        <v>0.01687238015631278</v>
       </c>
       <c r="D15">
-        <v>-0.02360324246518086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005709797657861462</v>
+      </c>
+      <c r="E15">
+        <v>-0.04065170781918662</v>
+      </c>
+      <c r="F15">
+        <v>-0.01590392751549618</v>
+      </c>
+      <c r="G15">
+        <v>-0.02968898465165784</v>
+      </c>
+      <c r="H15">
+        <v>0.01770746711920244</v>
+      </c>
+      <c r="I15">
+        <v>-0.0227023979442757</v>
+      </c>
+      <c r="J15">
+        <v>0.02362962591102168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.06279438744603824</v>
+        <v>0.0741577836538125</v>
       </c>
       <c r="C16">
-        <v>0.03656223217150723</v>
+        <v>0.04810964626773374</v>
       </c>
       <c r="D16">
-        <v>-0.0636732548593829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05144083029066342</v>
+      </c>
+      <c r="E16">
+        <v>-0.0007538338422188827</v>
+      </c>
+      <c r="F16">
+        <v>-0.03395666348847463</v>
+      </c>
+      <c r="G16">
+        <v>-0.03290653563704013</v>
+      </c>
+      <c r="H16">
+        <v>0.02406157723916943</v>
+      </c>
+      <c r="I16">
+        <v>-0.03962002741860365</v>
+      </c>
+      <c r="J16">
+        <v>-0.0128204591191997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1235,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1267,28 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1299,252 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.06490470023933491</v>
+        <v>0.06290365963813903</v>
       </c>
       <c r="C20">
-        <v>0.02212276538981821</v>
+        <v>0.03676387207326278</v>
       </c>
       <c r="D20">
-        <v>-0.05508388557016778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02584561974554515</v>
+      </c>
+      <c r="E20">
+        <v>0.003596707532733976</v>
+      </c>
+      <c r="F20">
+        <v>-0.03101842685608973</v>
+      </c>
+      <c r="G20">
+        <v>-0.02398983934150667</v>
+      </c>
+      <c r="H20">
+        <v>0.04382412562571687</v>
+      </c>
+      <c r="I20">
+        <v>-0.100564174528386</v>
+      </c>
+      <c r="J20">
+        <v>-0.005016772544818903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03548007160594471</v>
+        <v>0.03102014423694176</v>
       </c>
       <c r="C21">
-        <v>0.006409192587463311</v>
+        <v>0.01932725953149093</v>
       </c>
       <c r="D21">
-        <v>-0.01444073484928997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.00708047229278398</v>
+      </c>
+      <c r="E21">
+        <v>-0.02943409400521462</v>
+      </c>
+      <c r="F21">
+        <v>-0.002394321687992755</v>
+      </c>
+      <c r="G21">
+        <v>-0.003112886427118647</v>
+      </c>
+      <c r="H21">
+        <v>-0.06628908370170301</v>
+      </c>
+      <c r="I21">
+        <v>-0.02681906141441766</v>
+      </c>
+      <c r="J21">
+        <v>0.01446613886840643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.1061136469989556</v>
+        <v>0.09217715755721001</v>
       </c>
       <c r="C22">
-        <v>0.03343648919022769</v>
+        <v>0.06106149567732216</v>
       </c>
       <c r="D22">
-        <v>-0.1098357208102262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02837251348652142</v>
+      </c>
+      <c r="E22">
+        <v>-0.4953159081274668</v>
+      </c>
+      <c r="F22">
+        <v>-0.2289208257463264</v>
+      </c>
+      <c r="G22">
+        <v>0.2978790157384653</v>
+      </c>
+      <c r="H22">
+        <v>-0.09699131201504434</v>
+      </c>
+      <c r="I22">
+        <v>0.2298800347736316</v>
+      </c>
+      <c r="J22">
+        <v>-0.04170165228844371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.1069007779358083</v>
+        <v>0.09305344989073464</v>
       </c>
       <c r="C23">
-        <v>0.03437430340602049</v>
+        <v>0.0613776045884274</v>
       </c>
       <c r="D23">
-        <v>-0.1099423563765904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02954999215842821</v>
+      </c>
+      <c r="E23">
+        <v>-0.4979239714354775</v>
+      </c>
+      <c r="F23">
+        <v>-0.2317774315261389</v>
+      </c>
+      <c r="G23">
+        <v>0.2924311881946284</v>
+      </c>
+      <c r="H23">
+        <v>-0.0966894629521763</v>
+      </c>
+      <c r="I23">
+        <v>0.2327753267738396</v>
+      </c>
+      <c r="J23">
+        <v>-0.03616564640279713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08117610063700612</v>
+        <v>0.0840495786396538</v>
       </c>
       <c r="C24">
-        <v>0.04216874253727815</v>
+        <v>0.04628661305138854</v>
       </c>
       <c r="D24">
-        <v>-0.06495798844829452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05011548151925097</v>
+      </c>
+      <c r="E24">
+        <v>-0.003041861545537976</v>
+      </c>
+      <c r="F24">
+        <v>-0.04455510025339622</v>
+      </c>
+      <c r="G24">
+        <v>-0.04906072286050497</v>
+      </c>
+      <c r="H24">
+        <v>0.01321361062775741</v>
+      </c>
+      <c r="I24">
+        <v>-0.06047694737164015</v>
+      </c>
+      <c r="J24">
+        <v>-0.003087286883565367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07753486854678479</v>
+        <v>0.0780650578980097</v>
       </c>
       <c r="C25">
-        <v>0.04839424102795176</v>
+        <v>0.03951804916345805</v>
       </c>
       <c r="D25">
-        <v>-0.06466149644877274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05384735674764755</v>
+      </c>
+      <c r="E25">
+        <v>-0.008098185117552954</v>
+      </c>
+      <c r="F25">
+        <v>-0.03917850244047957</v>
+      </c>
+      <c r="G25">
+        <v>-0.04922181797354024</v>
+      </c>
+      <c r="H25">
+        <v>0.02140731921272399</v>
+      </c>
+      <c r="I25">
+        <v>-0.07303203469256835</v>
+      </c>
+      <c r="J25">
+        <v>-0.001540977063181484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.04833381957121045</v>
+        <v>0.04574455924293139</v>
       </c>
       <c r="C26">
-        <v>0.003050384197186854</v>
+        <v>0.02201944716116287</v>
       </c>
       <c r="D26">
-        <v>-0.01673991439341135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0001717397467393086</v>
+      </c>
+      <c r="E26">
+        <v>-0.02239586579197035</v>
+      </c>
+      <c r="F26">
+        <v>-0.02988212958795066</v>
+      </c>
+      <c r="G26">
+        <v>-0.02656129716208735</v>
+      </c>
+      <c r="H26">
+        <v>0.02888091468914321</v>
+      </c>
+      <c r="I26">
+        <v>-0.0009003068053110447</v>
+      </c>
+      <c r="J26">
+        <v>-0.001675436792945149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1555,316 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.04297796917997716</v>
+        <v>0.07590070993465017</v>
       </c>
       <c r="C28">
-        <v>0.06359280773265123</v>
+        <v>-0.2936091085671423</v>
       </c>
       <c r="D28">
-        <v>0.2827370825257986</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03791579145266898</v>
+      </c>
+      <c r="E28">
+        <v>-0.004743137998933075</v>
+      </c>
+      <c r="F28">
+        <v>-0.040312755324679</v>
+      </c>
+      <c r="G28">
+        <v>-0.030051761390779</v>
+      </c>
+      <c r="H28">
+        <v>-0.0419546506408916</v>
+      </c>
+      <c r="I28">
+        <v>0.01901001800259979</v>
+      </c>
+      <c r="J28">
+        <v>-0.01967348323626372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05391049839008574</v>
+        <v>0.05505427961276098</v>
       </c>
       <c r="C29">
-        <v>0.04315687866991576</v>
+        <v>0.002698308768782155</v>
       </c>
       <c r="D29">
-        <v>-0.004584272496695627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03777374757096329</v>
+      </c>
+      <c r="E29">
+        <v>-0.01486230722837156</v>
+      </c>
+      <c r="F29">
+        <v>-0.03618511613456237</v>
+      </c>
+      <c r="G29">
+        <v>-0.02437558617310525</v>
+      </c>
+      <c r="H29">
+        <v>0.0793443092133395</v>
+      </c>
+      <c r="I29">
+        <v>-0.03730176812427731</v>
+      </c>
+      <c r="J29">
+        <v>0.01361548853628974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1429135454005812</v>
+        <v>0.1302927272265531</v>
       </c>
       <c r="C30">
-        <v>0.07474316456562211</v>
+        <v>0.04548721266571489</v>
       </c>
       <c r="D30">
-        <v>-0.09255269228003993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07263732366668427</v>
+      </c>
+      <c r="E30">
+        <v>-0.05335235429111503</v>
+      </c>
+      <c r="F30">
+        <v>-0.09562780748154197</v>
+      </c>
+      <c r="G30">
+        <v>-0.04152717138853151</v>
+      </c>
+      <c r="H30">
+        <v>-0.03172424387789307</v>
+      </c>
+      <c r="I30">
+        <v>-0.3257278915692288</v>
+      </c>
+      <c r="J30">
+        <v>-0.07771178936616752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05363170659014987</v>
+        <v>0.04764143951518782</v>
       </c>
       <c r="C31">
-        <v>0.02712676519925539</v>
+        <v>0.03216623112572958</v>
       </c>
       <c r="D31">
-        <v>-0.02432274439825303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02627099599087727</v>
+      </c>
+      <c r="E31">
+        <v>-0.01573417299698355</v>
+      </c>
+      <c r="F31">
+        <v>-0.01232028575359225</v>
+      </c>
+      <c r="G31">
+        <v>-0.002048837625861407</v>
+      </c>
+      <c r="H31">
+        <v>0.06284047109853512</v>
+      </c>
+      <c r="I31">
+        <v>-0.02478816509846643</v>
+      </c>
+      <c r="J31">
+        <v>0.02482060745996193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.04300836224718976</v>
+        <v>0.04624426251801791</v>
       </c>
       <c r="C32">
-        <v>0.01003058578539669</v>
+        <v>-0.0002608151269417867</v>
       </c>
       <c r="D32">
-        <v>-0.02456657676183089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.008827148395590866</v>
+      </c>
+      <c r="E32">
+        <v>-0.07279495656268248</v>
+      </c>
+      <c r="F32">
+        <v>-0.02788117248232406</v>
+      </c>
+      <c r="G32">
+        <v>-0.01882681110924168</v>
+      </c>
+      <c r="H32">
+        <v>-0.01747516359972581</v>
+      </c>
+      <c r="I32">
+        <v>0.03160242766332128</v>
+      </c>
+      <c r="J32">
+        <v>-0.06886842928083504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.09895186631018218</v>
+        <v>0.1010966538375363</v>
       </c>
       <c r="C33">
-        <v>0.04026630510269197</v>
+        <v>0.04247869896448563</v>
       </c>
       <c r="D33">
-        <v>-0.04708042148551574</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03866451867506084</v>
+      </c>
+      <c r="E33">
+        <v>-0.02317733929378828</v>
+      </c>
+      <c r="F33">
+        <v>-0.01314849458438837</v>
+      </c>
+      <c r="G33">
+        <v>-0.01285141447059867</v>
+      </c>
+      <c r="H33">
+        <v>0.0480538001045772</v>
+      </c>
+      <c r="I33">
+        <v>-0.06440132888320847</v>
+      </c>
+      <c r="J33">
+        <v>0.01713594724794143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06263021244869536</v>
+        <v>0.06990930498487977</v>
       </c>
       <c r="C34">
-        <v>0.02018391093602714</v>
+        <v>0.04206829332089456</v>
       </c>
       <c r="D34">
-        <v>-0.06123533401640952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03170129197358589</v>
+      </c>
+      <c r="E34">
+        <v>-0.001835800012227875</v>
+      </c>
+      <c r="F34">
+        <v>-0.02503431318540133</v>
+      </c>
+      <c r="G34">
+        <v>-0.03588285652171133</v>
+      </c>
+      <c r="H34">
+        <v>0.02806975669107683</v>
+      </c>
+      <c r="I34">
+        <v>-0.04476960823087598</v>
+      </c>
+      <c r="J34">
+        <v>0.01233408981891523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.03902152883029794</v>
+        <v>0.0372580162855918</v>
       </c>
       <c r="C35">
-        <v>0.01380847218920741</v>
+        <v>0.01563211860548616</v>
       </c>
       <c r="D35">
-        <v>-0.01718488653077061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01587551250985531</v>
+      </c>
+      <c r="E35">
+        <v>-0.01516283338018027</v>
+      </c>
+      <c r="F35">
+        <v>0.008876948169164119</v>
+      </c>
+      <c r="G35">
+        <v>-0.007350971433948026</v>
+      </c>
+      <c r="H35">
+        <v>0.02731124967191954</v>
+      </c>
+      <c r="I35">
+        <v>-0.04822445567845365</v>
+      </c>
+      <c r="J35">
+        <v>-0.002174621206512684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03441342499810843</v>
+        <v>0.03284206814486518</v>
       </c>
       <c r="C36">
-        <v>0.01273531470007546</v>
+        <v>0.01428752633677318</v>
       </c>
       <c r="D36">
-        <v>-0.02237642053284298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01313635292602642</v>
+      </c>
+      <c r="E36">
+        <v>-0.01884934027862784</v>
+      </c>
+      <c r="F36">
+        <v>-0.04015141972125175</v>
+      </c>
+      <c r="G36">
+        <v>-0.02275807645903766</v>
+      </c>
+      <c r="H36">
+        <v>0.02777190199717287</v>
+      </c>
+      <c r="I36">
+        <v>-0.05727178172524382</v>
+      </c>
+      <c r="J36">
+        <v>0.006039864442082319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1875,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.06902399598118383</v>
+        <v>0.05831309761375478</v>
       </c>
       <c r="C38">
-        <v>0.003752091293989713</v>
+        <v>0.02620950657990905</v>
       </c>
       <c r="D38">
-        <v>-7.717509212138563e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005439941942185592</v>
+      </c>
+      <c r="E38">
+        <v>-0.02452369036385427</v>
+      </c>
+      <c r="F38">
+        <v>-0.01255754952285422</v>
+      </c>
+      <c r="G38">
+        <v>0.008241190672684199</v>
+      </c>
+      <c r="H38">
+        <v>0.03260139856411842</v>
+      </c>
+      <c r="I38">
+        <v>-0.002773404173960801</v>
+      </c>
+      <c r="J38">
+        <v>-0.03939659794096233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.08879477003686685</v>
+        <v>0.09709270383356444</v>
       </c>
       <c r="C39">
-        <v>0.05207748386854397</v>
+        <v>0.03613455079686453</v>
       </c>
       <c r="D39">
-        <v>-0.05018220549574818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0590762868720785</v>
+      </c>
+      <c r="E39">
+        <v>-0.009955243983180366</v>
+      </c>
+      <c r="F39">
+        <v>-0.03082354002660298</v>
+      </c>
+      <c r="G39">
+        <v>-0.03499083753668687</v>
+      </c>
+      <c r="H39">
+        <v>0.01567607372269006</v>
+      </c>
+      <c r="I39">
+        <v>-0.07582677397178383</v>
+      </c>
+      <c r="J39">
+        <v>-0.116416818291428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07832113116181694</v>
+        <v>0.05568669803890541</v>
       </c>
       <c r="C40">
-        <v>0.02136724028907232</v>
+        <v>0.04005453377002587</v>
       </c>
       <c r="D40">
-        <v>-0.02118371127628193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.005705649291318341</v>
+      </c>
+      <c r="E40">
+        <v>-0.07354116550230824</v>
+      </c>
+      <c r="F40">
+        <v>-0.02121066881826972</v>
+      </c>
+      <c r="G40">
+        <v>-0.03822392444442724</v>
+      </c>
+      <c r="H40">
+        <v>-0.0372473130341762</v>
+      </c>
+      <c r="I40">
+        <v>-0.2413467125174545</v>
+      </c>
+      <c r="J40">
+        <v>-0.2139715520018404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05696992433538483</v>
+        <v>0.0481778333143681</v>
       </c>
       <c r="C41">
-        <v>0.005834650953776259</v>
+        <v>0.03716839951204606</v>
       </c>
       <c r="D41">
-        <v>-0.03297027083971821</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005832159651586341</v>
+      </c>
+      <c r="E41">
+        <v>0.004967001008043818</v>
+      </c>
+      <c r="F41">
+        <v>0.01694532950888114</v>
+      </c>
+      <c r="G41">
+        <v>-0.02716450446514987</v>
+      </c>
+      <c r="H41">
+        <v>0.03447083774952514</v>
+      </c>
+      <c r="I41">
+        <v>-0.02584856065170021</v>
+      </c>
+      <c r="J41">
+        <v>-0.04546736746850315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +2035,92 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.05982895040474931</v>
+        <v>0.06184634931846555</v>
       </c>
       <c r="C43">
-        <v>0.02309290751370563</v>
+        <v>0.02914538353290297</v>
       </c>
       <c r="D43">
-        <v>-0.01617985625315321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0235700655650506</v>
+      </c>
+      <c r="E43">
+        <v>0.0009107238162399118</v>
+      </c>
+      <c r="F43">
+        <v>-0.01656055764151621</v>
+      </c>
+      <c r="G43">
+        <v>0.002535788731866513</v>
+      </c>
+      <c r="H43">
+        <v>0.05371382899675751</v>
+      </c>
+      <c r="I43">
+        <v>-0.002042935368633145</v>
+      </c>
+      <c r="J43">
+        <v>-0.01486527374169756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.09429617184019579</v>
+        <v>0.09648711282871894</v>
       </c>
       <c r="C44">
-        <v>0.01595724251786014</v>
+        <v>0.05047944924526947</v>
       </c>
       <c r="D44">
-        <v>-0.05711905914385185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02350964228931425</v>
+      </c>
+      <c r="E44">
+        <v>-0.04019168637216692</v>
+      </c>
+      <c r="F44">
+        <v>-0.1298762965622126</v>
+      </c>
+      <c r="G44">
+        <v>-0.06542821149215962</v>
+      </c>
+      <c r="H44">
+        <v>0.04661847335287147</v>
+      </c>
+      <c r="I44">
+        <v>-0.1211616843359608</v>
+      </c>
+      <c r="J44">
+        <v>-0.04539008400343324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +2131,220 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.03022576398027502</v>
+        <v>0.04399014473765971</v>
       </c>
       <c r="C46">
-        <v>0.02286896552260324</v>
+        <v>0.02462888889605886</v>
       </c>
       <c r="D46">
-        <v>-0.03284322569613802</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03489166708756521</v>
+      </c>
+      <c r="E46">
+        <v>-0.01651470527707971</v>
+      </c>
+      <c r="F46">
+        <v>-0.03589500560557468</v>
+      </c>
+      <c r="G46">
+        <v>-8.046063093462884e-05</v>
+      </c>
+      <c r="H46">
+        <v>0.01760340018584603</v>
+      </c>
+      <c r="I46">
+        <v>-0.007061354312626635</v>
+      </c>
+      <c r="J46">
+        <v>0.02780928507844882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.04014258388546199</v>
+        <v>0.04877508621184021</v>
       </c>
       <c r="C47">
-        <v>0.02427636165881043</v>
+        <v>0.002537725989726237</v>
       </c>
       <c r="D47">
-        <v>0.003627207844724717</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02198887369355998</v>
+      </c>
+      <c r="E47">
+        <v>-0.03704812399136568</v>
+      </c>
+      <c r="F47">
+        <v>-0.01324990678105838</v>
+      </c>
+      <c r="G47">
+        <v>0.01938496568298184</v>
+      </c>
+      <c r="H47">
+        <v>0.02379990636933548</v>
+      </c>
+      <c r="I47">
+        <v>-0.03246703258146694</v>
+      </c>
+      <c r="J47">
+        <v>0.03618861782811417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04445303303471986</v>
+        <v>0.04310316921259259</v>
       </c>
       <c r="C48">
-        <v>0.02157038319667926</v>
+        <v>0.01629865897664217</v>
       </c>
       <c r="D48">
-        <v>-0.03151385402290054</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01707599482521283</v>
+      </c>
+      <c r="E48">
+        <v>-0.04127061844340923</v>
+      </c>
+      <c r="F48">
+        <v>-0.02647045460625055</v>
+      </c>
+      <c r="G48">
+        <v>-0.01133816970323212</v>
+      </c>
+      <c r="H48">
+        <v>0.005100070365377599</v>
+      </c>
+      <c r="I48">
+        <v>-0.0425655339715516</v>
+      </c>
+      <c r="J48">
+        <v>0.01075503193079334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.151218282241606</v>
+        <v>0.2003167711882571</v>
       </c>
       <c r="C49">
-        <v>0.05030698378792272</v>
+        <v>0.001530719324802682</v>
       </c>
       <c r="D49">
-        <v>-0.009441302406859503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.05125900366280497</v>
+      </c>
+      <c r="E49">
+        <v>0.1831674373823696</v>
+      </c>
+      <c r="F49">
+        <v>0.07127777428824275</v>
+      </c>
+      <c r="G49">
+        <v>0.1356437181813269</v>
+      </c>
+      <c r="H49">
+        <v>-0.1882168257383782</v>
+      </c>
+      <c r="I49">
+        <v>0.07600150554200977</v>
+      </c>
+      <c r="J49">
+        <v>0.02628966802593804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05551256211254232</v>
+        <v>0.05320282505366015</v>
       </c>
       <c r="C50">
-        <v>0.03672456330723607</v>
+        <v>0.02597368060557716</v>
       </c>
       <c r="D50">
-        <v>-0.0322474855042606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03760234004256914</v>
+      </c>
+      <c r="E50">
+        <v>-0.02684925987171521</v>
+      </c>
+      <c r="F50">
+        <v>-0.01384416752262669</v>
+      </c>
+      <c r="G50">
+        <v>-0.01961551415450144</v>
+      </c>
+      <c r="H50">
+        <v>0.06898576568333457</v>
+      </c>
+      <c r="I50">
+        <v>-0.0209016154470704</v>
+      </c>
+      <c r="J50">
+        <v>0.03861917987474574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.02824731474886852</v>
+        <v>0.03710322957722027</v>
       </c>
       <c r="C51">
-        <v>-0.005572769559832756</v>
+        <v>-0.003406582050005603</v>
       </c>
       <c r="D51">
-        <v>0.008542155551254975</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01370635810079321</v>
+      </c>
+      <c r="E51">
+        <v>0.02065135417459413</v>
+      </c>
+      <c r="F51">
+        <v>-0.007582841647738306</v>
+      </c>
+      <c r="G51">
+        <v>0.02188527041004721</v>
+      </c>
+      <c r="H51">
+        <v>-0.02173603191573186</v>
+      </c>
+      <c r="I51">
+        <v>0.01931233261250003</v>
+      </c>
+      <c r="J51">
+        <v>-0.03642287636008876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2355,156 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1532473853045337</v>
+        <v>0.1573170155630872</v>
       </c>
       <c r="C53">
-        <v>0.07405266245840607</v>
+        <v>0.004148100938909358</v>
       </c>
       <c r="D53">
-        <v>0.01342799644961334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05335918402754021</v>
+      </c>
+      <c r="E53">
+        <v>0.03249285312192109</v>
+      </c>
+      <c r="F53">
+        <v>0.02027378778045781</v>
+      </c>
+      <c r="G53">
+        <v>0.005589958797120557</v>
+      </c>
+      <c r="H53">
+        <v>0.2187136449950063</v>
+      </c>
+      <c r="I53">
+        <v>0.09423818021627139</v>
+      </c>
+      <c r="J53">
+        <v>0.0423834845119148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.06152405681713551</v>
+        <v>0.06156825062692634</v>
       </c>
       <c r="C54">
-        <v>0.0212367480897904</v>
+        <v>0.006124009651185574</v>
       </c>
       <c r="D54">
-        <v>-0.02358967240853901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02143481859193668</v>
+      </c>
+      <c r="E54">
+        <v>-0.04929673506543101</v>
+      </c>
+      <c r="F54">
+        <v>-0.05379486579875067</v>
+      </c>
+      <c r="G54">
+        <v>-0.05202441360398023</v>
+      </c>
+      <c r="H54">
+        <v>0.03350411632738485</v>
+      </c>
+      <c r="I54">
+        <v>-0.1173534518530033</v>
+      </c>
+      <c r="J54">
+        <v>0.02721225654755101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09869719982990406</v>
+        <v>0.09978710948937507</v>
       </c>
       <c r="C55">
-        <v>0.04997210598232863</v>
+        <v>0.01535455550774445</v>
       </c>
       <c r="D55">
-        <v>-0.008355879082320323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04014470259683329</v>
+      </c>
+      <c r="E55">
+        <v>0.008365917901236631</v>
+      </c>
+      <c r="F55">
+        <v>-0.01855884186346577</v>
+      </c>
+      <c r="G55">
+        <v>-0.03049160994616103</v>
+      </c>
+      <c r="H55">
+        <v>0.1707533416395522</v>
+      </c>
+      <c r="I55">
+        <v>0.02494543147635463</v>
+      </c>
+      <c r="J55">
+        <v>0.03618484401792892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1448763780735499</v>
+        <v>0.150347388987808</v>
       </c>
       <c r="C56">
-        <v>0.08585101563177008</v>
+        <v>0.01872696858095846</v>
       </c>
       <c r="D56">
-        <v>0.00658933122279415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06787722656805929</v>
+      </c>
+      <c r="E56">
+        <v>0.02635247887939444</v>
+      </c>
+      <c r="F56">
+        <v>-0.003353198448907296</v>
+      </c>
+      <c r="G56">
+        <v>-0.02185575045872451</v>
+      </c>
+      <c r="H56">
+        <v>0.2070022078556971</v>
+      </c>
+      <c r="I56">
+        <v>0.1117455378181817</v>
+      </c>
+      <c r="J56">
+        <v>0.0002995247927773445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2515,1244 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1274372050294392</v>
+        <v>0.08946103792070567</v>
       </c>
       <c r="C58">
-        <v>-0.04939555488054311</v>
+        <v>0.06176653004000521</v>
       </c>
       <c r="D58">
-        <v>-0.05729021805992062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06877109415637439</v>
+      </c>
+      <c r="E58">
+        <v>-0.09506030024750706</v>
+      </c>
+      <c r="F58">
+        <v>-0.1008763577309531</v>
+      </c>
+      <c r="G58">
+        <v>0.1235999268788272</v>
+      </c>
+      <c r="H58">
+        <v>-0.1719862162773728</v>
+      </c>
+      <c r="I58">
+        <v>-0.5401998251874232</v>
+      </c>
+      <c r="J58">
+        <v>-0.01883198411589209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1225146447981549</v>
+        <v>0.1578308752904821</v>
       </c>
       <c r="C59">
-        <v>0.07737179650307738</v>
+        <v>-0.3615963707076787</v>
       </c>
       <c r="D59">
-        <v>0.4355242773734562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07102654431270254</v>
+      </c>
+      <c r="E59">
+        <v>0.003861318321154492</v>
+      </c>
+      <c r="F59">
+        <v>-0.001274556094508353</v>
+      </c>
+      <c r="G59">
+        <v>-0.01654839092502706</v>
+      </c>
+      <c r="H59">
+        <v>0.02182874267464543</v>
+      </c>
+      <c r="I59">
+        <v>0.04854066404980822</v>
+      </c>
+      <c r="J59">
+        <v>-0.07661695868216238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2102433965463349</v>
+        <v>0.241009045484533</v>
       </c>
       <c r="C60">
-        <v>0.07819022231867175</v>
+        <v>0.01610919644102197</v>
       </c>
       <c r="D60">
-        <v>0.01252661119869413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05998549802204145</v>
+      </c>
+      <c r="E60">
+        <v>0.1382614989405086</v>
+      </c>
+      <c r="F60">
+        <v>0.02100781778082803</v>
+      </c>
+      <c r="G60">
+        <v>0.02259138618408683</v>
+      </c>
+      <c r="H60">
+        <v>-0.125955276999345</v>
+      </c>
+      <c r="I60">
+        <v>0.1177985628030599</v>
+      </c>
+      <c r="J60">
+        <v>0.1051279186063951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.07650686273437236</v>
+        <v>0.08668176008487731</v>
       </c>
       <c r="C61">
-        <v>0.04908694181108587</v>
+        <v>0.02637425027036485</v>
       </c>
       <c r="D61">
-        <v>-0.03194588046607363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05362148964054325</v>
+      </c>
+      <c r="E61">
+        <v>0.0021891480736206</v>
+      </c>
+      <c r="F61">
+        <v>-0.0255256473427674</v>
+      </c>
+      <c r="G61">
+        <v>-0.04653931920742542</v>
+      </c>
+      <c r="H61">
+        <v>0.05838918520103842</v>
+      </c>
+      <c r="I61">
+        <v>-0.04215995217489817</v>
+      </c>
+      <c r="J61">
+        <v>-0.06511752373619237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1488075708580298</v>
+        <v>0.1470830281715919</v>
       </c>
       <c r="C62">
-        <v>0.04514758859060053</v>
+        <v>0.02762032578993762</v>
       </c>
       <c r="D62">
-        <v>0.01663361439540725</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.02993423637978177</v>
+      </c>
+      <c r="E62">
+        <v>0.02756060526135164</v>
+      </c>
+      <c r="F62">
+        <v>0.04447464334412484</v>
+      </c>
+      <c r="G62">
+        <v>-0.04964844581781629</v>
+      </c>
+      <c r="H62">
+        <v>0.1967100056163363</v>
+      </c>
+      <c r="I62">
+        <v>0.1196600679156166</v>
+      </c>
+      <c r="J62">
+        <v>0.0606169624785536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0584964990473889</v>
+        <v>0.05301903861642085</v>
       </c>
       <c r="C63">
-        <v>0.01032102466649158</v>
+        <v>0.02118001104844672</v>
       </c>
       <c r="D63">
-        <v>-0.03073085588753208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01273370118887225</v>
+      </c>
+      <c r="E63">
+        <v>-0.02032673272667722</v>
+      </c>
+      <c r="F63">
+        <v>-0.01441161846697528</v>
+      </c>
+      <c r="G63">
+        <v>-0.04989509490287984</v>
+      </c>
+      <c r="H63">
+        <v>0.02559740028572962</v>
+      </c>
+      <c r="I63">
+        <v>-0.03467908606844942</v>
+      </c>
+      <c r="J63">
+        <v>0.03580287494570202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1009217967324635</v>
+        <v>0.1089297053909606</v>
       </c>
       <c r="C64">
-        <v>0.03481991167497134</v>
+        <v>0.01484016727743359</v>
       </c>
       <c r="D64">
-        <v>-0.02109698307616716</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03414276040416434</v>
+      </c>
+      <c r="E64">
+        <v>1.809706407108386e-05</v>
+      </c>
+      <c r="F64">
+        <v>-0.05752977240179185</v>
+      </c>
+      <c r="G64">
+        <v>-0.04509264325316571</v>
+      </c>
+      <c r="H64">
+        <v>-0.005265878806147845</v>
+      </c>
+      <c r="I64">
+        <v>-0.05523523801572713</v>
+      </c>
+      <c r="J64">
+        <v>-0.01446337042877904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1231967718216024</v>
+        <v>0.1320206597998619</v>
       </c>
       <c r="C65">
-        <v>0.0381058737560885</v>
+        <v>0.0004091791811740919</v>
       </c>
       <c r="D65">
-        <v>-0.02900781019072686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03432679464690758</v>
+      </c>
+      <c r="E65">
+        <v>0.01610222120062222</v>
+      </c>
+      <c r="F65">
+        <v>-0.01559200740437435</v>
+      </c>
+      <c r="G65">
+        <v>-0.07535694834517302</v>
+      </c>
+      <c r="H65">
+        <v>-0.2178377017692472</v>
+      </c>
+      <c r="I65">
+        <v>-0.01663723267964591</v>
+      </c>
+      <c r="J65">
+        <v>0.6423938665099663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1542801280925757</v>
+        <v>0.1483844972163452</v>
       </c>
       <c r="C66">
-        <v>0.07032059630010047</v>
+        <v>0.08125684303999793</v>
       </c>
       <c r="D66">
-        <v>-0.08570866378997889</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08143373299169991</v>
+      </c>
+      <c r="E66">
+        <v>0.009607901506794022</v>
+      </c>
+      <c r="F66">
+        <v>-0.01515782265761404</v>
+      </c>
+      <c r="G66">
+        <v>-0.08347812023142896</v>
+      </c>
+      <c r="H66">
+        <v>0.05537056942282425</v>
+      </c>
+      <c r="I66">
+        <v>-0.123151849341824</v>
+      </c>
+      <c r="J66">
+        <v>-0.1880505939507075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.09915714565807975</v>
+        <v>0.1009549003858561</v>
       </c>
       <c r="C67">
-        <v>0.008247347037827174</v>
+        <v>0.03266647099160357</v>
       </c>
       <c r="D67">
-        <v>5.658570927920104e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004187270695611727</v>
+      </c>
+      <c r="E67">
+        <v>0.00985370430435744</v>
+      </c>
+      <c r="F67">
+        <v>-0.009175145436071907</v>
+      </c>
+      <c r="G67">
+        <v>0.01694318616551175</v>
+      </c>
+      <c r="H67">
+        <v>0.01963095559180643</v>
+      </c>
+      <c r="I67">
+        <v>0.02978296851037638</v>
+      </c>
+      <c r="J67">
+        <v>-0.06237064237251039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04425745425948275</v>
+        <v>0.07289205091999651</v>
       </c>
       <c r="C68">
-        <v>0.04716722546805846</v>
+        <v>-0.2794113082495471</v>
       </c>
       <c r="D68">
-        <v>0.2542089403838008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04333488827948816</v>
+      </c>
+      <c r="E68">
+        <v>-0.03262727675065893</v>
+      </c>
+      <c r="F68">
+        <v>-0.03644826701172175</v>
+      </c>
+      <c r="G68">
+        <v>0.003453580157118175</v>
+      </c>
+      <c r="H68">
+        <v>0.0213906303439792</v>
+      </c>
+      <c r="I68">
+        <v>-0.01516772905004013</v>
+      </c>
+      <c r="J68">
+        <v>0.03752785486507679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0681185938493654</v>
+        <v>0.05840841529383837</v>
       </c>
       <c r="C69">
-        <v>0.02056547950968667</v>
+        <v>0.01689758534148264</v>
       </c>
       <c r="D69">
-        <v>-0.0158876918572218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009824548682182551</v>
+      </c>
+      <c r="E69">
+        <v>-0.02421836443598336</v>
+      </c>
+      <c r="F69">
+        <v>0.003240885164593415</v>
+      </c>
+      <c r="G69">
+        <v>-0.0008928808818809452</v>
+      </c>
+      <c r="H69">
+        <v>0.03450010707586135</v>
+      </c>
+      <c r="I69">
+        <v>-0.007259445051590685</v>
+      </c>
+      <c r="J69">
+        <v>-0.0009083569740723367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.01054952843235537</v>
+        <v>0.0332828213009338</v>
       </c>
       <c r="C70">
-        <v>0.002565594733238613</v>
+        <v>-0.001238259179575478</v>
       </c>
       <c r="D70">
-        <v>0.007566471240378123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00294219897622864</v>
+      </c>
+      <c r="E70">
+        <v>0.03284889560073135</v>
+      </c>
+      <c r="F70">
+        <v>0.02262568099349192</v>
+      </c>
+      <c r="G70">
+        <v>0.004220173529664729</v>
+      </c>
+      <c r="H70">
+        <v>-0.04240266581673124</v>
+      </c>
+      <c r="I70">
+        <v>-0.01121102216942138</v>
+      </c>
+      <c r="J70">
+        <v>-0.04853238765139496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.0398300002746812</v>
+        <v>0.07848049329965547</v>
       </c>
       <c r="C71">
-        <v>0.04364583376144414</v>
+        <v>-0.2999696441968763</v>
       </c>
       <c r="D71">
-        <v>0.2857308315329968</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04759498201123843</v>
+      </c>
+      <c r="E71">
+        <v>-0.01497347701960414</v>
+      </c>
+      <c r="F71">
+        <v>-0.05330344462662528</v>
+      </c>
+      <c r="G71">
+        <v>-0.004160881127483033</v>
+      </c>
+      <c r="H71">
+        <v>0.0210771505436443</v>
+      </c>
+      <c r="I71">
+        <v>-0.01550250601251598</v>
+      </c>
+      <c r="J71">
+        <v>0.01271003613863221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1431234889051153</v>
+        <v>0.1371670997207712</v>
       </c>
       <c r="C72">
-        <v>0.03759262704219588</v>
+        <v>-0.00447306187125613</v>
       </c>
       <c r="D72">
-        <v>0.03708291364657378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003797405309392487</v>
+      </c>
+      <c r="E72">
+        <v>-0.05856314492813107</v>
+      </c>
+      <c r="F72">
+        <v>0.1602634508225985</v>
+      </c>
+      <c r="G72">
+        <v>-0.123678101372658</v>
+      </c>
+      <c r="H72">
+        <v>0.0166486862325756</v>
+      </c>
+      <c r="I72">
+        <v>0.01524523521089901</v>
+      </c>
+      <c r="J72">
+        <v>0.1280616385237095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2642727350224263</v>
+        <v>0.2616761494535403</v>
       </c>
       <c r="C73">
-        <v>0.06770910954709643</v>
+        <v>0.08317538478703432</v>
       </c>
       <c r="D73">
-        <v>-0.04146596310570937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0407446518068498</v>
+      </c>
+      <c r="E73">
+        <v>0.3144487496279424</v>
+      </c>
+      <c r="F73">
+        <v>0.1123210348042558</v>
+      </c>
+      <c r="G73">
+        <v>0.2136519858297587</v>
+      </c>
+      <c r="H73">
+        <v>-0.2735231381014117</v>
+      </c>
+      <c r="I73">
+        <v>0.05253282176691879</v>
+      </c>
+      <c r="J73">
+        <v>-0.1662067147703503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.08510211305161273</v>
+        <v>0.09200301086807229</v>
       </c>
       <c r="C74">
-        <v>0.07026078206526989</v>
+        <v>0.01607268189154104</v>
       </c>
       <c r="D74">
-        <v>-0.002789420939801552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0610102363881934</v>
+      </c>
+      <c r="E74">
+        <v>0.009075681122174405</v>
+      </c>
+      <c r="F74">
+        <v>0.00762108160561584</v>
+      </c>
+      <c r="G74">
+        <v>0.0258890283855619</v>
+      </c>
+      <c r="H74">
+        <v>0.138050906526355</v>
+      </c>
+      <c r="I74">
+        <v>0.01507201017479492</v>
+      </c>
+      <c r="J74">
+        <v>0.01268030570090382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.1156807470876192</v>
+        <v>0.105918921757935</v>
       </c>
       <c r="C75">
-        <v>0.03584137190274145</v>
+        <v>0.02341706980217936</v>
       </c>
       <c r="D75">
-        <v>-0.001292744095098535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01333856256893594</v>
+      </c>
+      <c r="E75">
+        <v>-0.004743637019403539</v>
+      </c>
+      <c r="F75">
+        <v>0.00333343193795943</v>
+      </c>
+      <c r="G75">
+        <v>0.004645451336581874</v>
+      </c>
+      <c r="H75">
+        <v>0.1153977362064624</v>
+      </c>
+      <c r="I75">
+        <v>0.05456837278050208</v>
+      </c>
+      <c r="J75">
+        <v>0.01250102672066568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1336785913294602</v>
+        <v>0.1328752430998261</v>
       </c>
       <c r="C76">
-        <v>0.07863763178622496</v>
+        <v>0.03905425897615043</v>
       </c>
       <c r="D76">
-        <v>-0.02630611968301322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07511299203910407</v>
+      </c>
+      <c r="E76">
+        <v>0.01761646641228021</v>
+      </c>
+      <c r="F76">
+        <v>-0.01696350247439031</v>
+      </c>
+      <c r="G76">
+        <v>-0.03152974548784096</v>
+      </c>
+      <c r="H76">
+        <v>0.2578198344346434</v>
+      </c>
+      <c r="I76">
+        <v>0.09709199593706146</v>
+      </c>
+      <c r="J76">
+        <v>0.02383690162862926</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1241396547073067</v>
+        <v>0.09452437079101632</v>
       </c>
       <c r="C77">
-        <v>-0.03483187675791417</v>
+        <v>0.05698068626886071</v>
       </c>
       <c r="D77">
-        <v>-0.06924036695018669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05275138710821128</v>
+      </c>
+      <c r="E77">
+        <v>-0.1033830264184387</v>
+      </c>
+      <c r="F77">
+        <v>-0.1391285350097259</v>
+      </c>
+      <c r="G77">
+        <v>-0.7371642867489696</v>
+      </c>
+      <c r="H77">
+        <v>-0.3348173872584347</v>
+      </c>
+      <c r="I77">
+        <v>0.3002958650093223</v>
+      </c>
+      <c r="J77">
+        <v>-0.2564569777365826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.1144389943295014</v>
+        <v>0.1580248802648294</v>
       </c>
       <c r="C78">
-        <v>0.03057581249349397</v>
+        <v>0.05392123308634443</v>
       </c>
       <c r="D78">
-        <v>-0.07782628026504441</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06197720367109105</v>
+      </c>
+      <c r="E78">
+        <v>-0.08262089108864643</v>
+      </c>
+      <c r="F78">
+        <v>-0.1100210111837986</v>
+      </c>
+      <c r="G78">
+        <v>0.01380619365948967</v>
+      </c>
+      <c r="H78">
+        <v>-0.1419810902998488</v>
+      </c>
+      <c r="I78">
+        <v>-0.02340318002521326</v>
+      </c>
+      <c r="J78">
+        <v>0.1087574345212509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1480797844026652</v>
+        <v>0.146128698619332</v>
       </c>
       <c r="C79">
-        <v>0.05143455148274829</v>
+        <v>0.03400827670757385</v>
       </c>
       <c r="D79">
-        <v>-0.02521536640928893</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03748201059486604</v>
+      </c>
+      <c r="E79">
+        <v>0.02133605935217369</v>
+      </c>
+      <c r="F79">
+        <v>0.001460792971583048</v>
+      </c>
+      <c r="G79">
+        <v>-0.04899858988913997</v>
+      </c>
+      <c r="H79">
+        <v>0.1835953065757753</v>
+      </c>
+      <c r="I79">
+        <v>0.0901548243515506</v>
+      </c>
+      <c r="J79">
+        <v>0.0555991649638769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04298253333007489</v>
+        <v>0.0454528595616304</v>
       </c>
       <c r="C80">
-        <v>0.01452963474088621</v>
+        <v>0.009310409398405578</v>
       </c>
       <c r="D80">
-        <v>-0.02119940417918506</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01549957694731195</v>
+      </c>
+      <c r="E80">
+        <v>0.04996331777721107</v>
+      </c>
+      <c r="F80">
+        <v>0.01592597935169493</v>
+      </c>
+      <c r="G80">
+        <v>-0.001144265795028529</v>
+      </c>
+      <c r="H80">
+        <v>0.008806787381447977</v>
+      </c>
+      <c r="I80">
+        <v>-0.1145475293358463</v>
+      </c>
+      <c r="J80">
+        <v>0.03233035972384762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1348373229874681</v>
+        <v>0.131118113831295</v>
       </c>
       <c r="C81">
-        <v>0.06862076017521797</v>
+        <v>0.01644477543760974</v>
       </c>
       <c r="D81">
-        <v>-0.009936350514950247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.05009773788175326</v>
+      </c>
+      <c r="E81">
+        <v>0.01149962222781467</v>
+      </c>
+      <c r="F81">
+        <v>-0.01255516711477364</v>
+      </c>
+      <c r="G81">
+        <v>-0.01361341793289229</v>
+      </c>
+      <c r="H81">
+        <v>0.1551196255745503</v>
+      </c>
+      <c r="I81">
+        <v>0.01700219292471586</v>
+      </c>
+      <c r="J81">
+        <v>-0.01885690070101751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1247551268190564</v>
+        <v>0.1222178879669515</v>
       </c>
       <c r="C82">
-        <v>0.05109254154462452</v>
+        <v>0.02361989419124341</v>
       </c>
       <c r="D82">
-        <v>-0.01724358154103949</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04134679569103577</v>
+      </c>
+      <c r="E82">
+        <v>0.03064411068430679</v>
+      </c>
+      <c r="F82">
+        <v>-0.01308081441104531</v>
+      </c>
+      <c r="G82">
+        <v>0.006125186202093932</v>
+      </c>
+      <c r="H82">
+        <v>0.2575179155508421</v>
+      </c>
+      <c r="I82">
+        <v>0.08959052969182005</v>
+      </c>
+      <c r="J82">
+        <v>-0.02800086443638515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.06431041590811572</v>
+        <v>0.08116867767564968</v>
       </c>
       <c r="C83">
-        <v>-0.03294178913049686</v>
+        <v>0.03034057692537256</v>
       </c>
       <c r="D83">
-        <v>-0.002041991540851428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03101268602612162</v>
+      </c>
+      <c r="E83">
+        <v>0.03805041722969186</v>
+      </c>
+      <c r="F83">
+        <v>-0.009513767650468696</v>
+      </c>
+      <c r="G83">
+        <v>0.06695604096475455</v>
+      </c>
+      <c r="H83">
+        <v>-0.04114532323534345</v>
+      </c>
+      <c r="I83">
+        <v>-0.105582909029853</v>
+      </c>
+      <c r="J83">
+        <v>-0.04907552388541447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04281374584129221</v>
+        <v>0.03550335302186463</v>
       </c>
       <c r="C84">
-        <v>0.02590512153360698</v>
+        <v>0.03654596234150921</v>
       </c>
       <c r="D84">
-        <v>-0.0312794750796712</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02690001769385071</v>
+      </c>
+      <c r="E84">
+        <v>-0.0437896082166467</v>
+      </c>
+      <c r="F84">
+        <v>0.02461388800638668</v>
+      </c>
+      <c r="G84">
+        <v>0.0372234866041694</v>
+      </c>
+      <c r="H84">
+        <v>0.04162700605929671</v>
+      </c>
+      <c r="I84">
+        <v>-0.0960545359421696</v>
+      </c>
+      <c r="J84">
+        <v>-0.006649807836352216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1145077695441057</v>
+        <v>0.1214052845637703</v>
       </c>
       <c r="C85">
-        <v>0.02800744415097232</v>
+        <v>0.03179966728816513</v>
       </c>
       <c r="D85">
-        <v>-0.03273502447810659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02438329249789888</v>
+      </c>
+      <c r="E85">
+        <v>0.01745511548622289</v>
+      </c>
+      <c r="F85">
+        <v>-0.03723334391572152</v>
+      </c>
+      <c r="G85">
+        <v>-0.0221357619793472</v>
+      </c>
+      <c r="H85">
+        <v>0.1747811536874697</v>
+      </c>
+      <c r="I85">
+        <v>0.07239524863392063</v>
+      </c>
+      <c r="J85">
+        <v>0.0627984998295205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06473223164479709</v>
+        <v>0.0603251456031218</v>
       </c>
       <c r="C86">
-        <v>0.01507596361089184</v>
+        <v>0.03059547953398324</v>
       </c>
       <c r="D86">
-        <v>-0.06329887058391609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01397621803858446</v>
+      </c>
+      <c r="E86">
+        <v>-0.02339809927418502</v>
+      </c>
+      <c r="F86">
+        <v>-0.03770255495168748</v>
+      </c>
+      <c r="G86">
+        <v>0.007242458556677921</v>
+      </c>
+      <c r="H86">
+        <v>-0.05852125154693909</v>
+      </c>
+      <c r="I86">
+        <v>0.05134327926613836</v>
+      </c>
+      <c r="J86">
+        <v>0.03623165043378301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.123026108146031</v>
+        <v>0.1275430114058592</v>
       </c>
       <c r="C87">
-        <v>0.06920317594228648</v>
+        <v>0.06134797655853351</v>
       </c>
       <c r="D87">
-        <v>-0.08763827860464837</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06969477153792566</v>
+      </c>
+      <c r="E87">
+        <v>-0.05408331528914335</v>
+      </c>
+      <c r="F87">
+        <v>-0.06031314574462272</v>
+      </c>
+      <c r="G87">
+        <v>-0.1574085428892596</v>
+      </c>
+      <c r="H87">
+        <v>-0.08940178142462947</v>
+      </c>
+      <c r="I87">
+        <v>0.0008371567111818144</v>
+      </c>
+      <c r="J87">
+        <v>-0.01031816042275767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.05926697570665561</v>
+        <v>0.06430921914229216</v>
       </c>
       <c r="C88">
-        <v>0.0285244248246361</v>
+        <v>0.03524032522019389</v>
       </c>
       <c r="D88">
-        <v>-0.03159513717758754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03561869235297129</v>
+      </c>
+      <c r="E88">
+        <v>0.02083165935668684</v>
+      </c>
+      <c r="F88">
+        <v>-0.0100641744667115</v>
+      </c>
+      <c r="G88">
+        <v>-0.02033031002773956</v>
+      </c>
+      <c r="H88">
+        <v>0.03255819762292255</v>
+      </c>
+      <c r="I88">
+        <v>-0.03170284774305026</v>
+      </c>
+      <c r="J88">
+        <v>-0.01630289281804414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.07119289840985282</v>
+        <v>0.1268384137084054</v>
       </c>
       <c r="C89">
-        <v>0.07806266336116487</v>
+        <v>-0.3765163049156935</v>
       </c>
       <c r="D89">
-        <v>0.3141974866847739</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03730462370880694</v>
+      </c>
+      <c r="E89">
+        <v>-0.00560258538820089</v>
+      </c>
+      <c r="F89">
+        <v>-0.09793037349703072</v>
+      </c>
+      <c r="G89">
+        <v>0.02091016691594629</v>
+      </c>
+      <c r="H89">
+        <v>0.01191278491479126</v>
+      </c>
+      <c r="I89">
+        <v>-0.07996794627066955</v>
+      </c>
+      <c r="J89">
+        <v>-0.06474115550979928</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.06365902130348623</v>
+        <v>0.09278703565037175</v>
       </c>
       <c r="C90">
-        <v>0.0412362962955383</v>
+        <v>-0.2800348685002099</v>
       </c>
       <c r="D90">
-        <v>0.282589542450737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05417204616403459</v>
+      </c>
+      <c r="E90">
+        <v>-0.01483346177550255</v>
+      </c>
+      <c r="F90">
+        <v>-0.04738091052381701</v>
+      </c>
+      <c r="G90">
+        <v>-0.01463873650393111</v>
+      </c>
+      <c r="H90">
+        <v>-0.01756057209937588</v>
+      </c>
+      <c r="I90">
+        <v>-0.09721169545140071</v>
+      </c>
+      <c r="J90">
+        <v>-0.03855921920091378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.1017230624930254</v>
+        <v>0.09271864113269371</v>
       </c>
       <c r="C91">
-        <v>0.04327037718319321</v>
+        <v>0.0254679907274118</v>
       </c>
       <c r="D91">
-        <v>-0.007105072198311259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02623753007838471</v>
+      </c>
+      <c r="E91">
+        <v>0.005559261983280744</v>
+      </c>
+      <c r="F91">
+        <v>0.002474297162316794</v>
+      </c>
+      <c r="G91">
+        <v>0.01143052422432477</v>
+      </c>
+      <c r="H91">
+        <v>0.07526682239360584</v>
+      </c>
+      <c r="I91">
+        <v>0.0414995959193818</v>
+      </c>
+      <c r="J91">
+        <v>-0.004492198171920848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05557610858119272</v>
+        <v>0.09350784267041133</v>
       </c>
       <c r="C92">
-        <v>0.06228052248895902</v>
+        <v>-0.3323944048246653</v>
       </c>
       <c r="D92">
-        <v>0.3271884607283744</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04934465920581327</v>
+      </c>
+      <c r="E92">
+        <v>-0.02003965460335743</v>
+      </c>
+      <c r="F92">
+        <v>-0.05863643037130236</v>
+      </c>
+      <c r="G92">
+        <v>-0.0002741779089844823</v>
+      </c>
+      <c r="H92">
+        <v>0.02237856582178524</v>
+      </c>
+      <c r="I92">
+        <v>-0.02812700913836808</v>
+      </c>
+      <c r="J92">
+        <v>-0.02123890295702031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04663443903919597</v>
+        <v>0.09042556255483307</v>
       </c>
       <c r="C93">
-        <v>0.05734479819915762</v>
+        <v>-0.3182678567787626</v>
       </c>
       <c r="D93">
-        <v>0.3038324260427769</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.04265065498499263</v>
+      </c>
+      <c r="E93">
+        <v>0.004563308193426876</v>
+      </c>
+      <c r="F93">
+        <v>-0.03167560254196936</v>
+      </c>
+      <c r="G93">
+        <v>-0.003787695430156072</v>
+      </c>
+      <c r="H93">
+        <v>-0.007372598092785978</v>
+      </c>
+      <c r="I93">
+        <v>-0.01618885701274441</v>
+      </c>
+      <c r="J93">
+        <v>0.005805854359526548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.129031792497795</v>
+        <v>0.1267619208063622</v>
       </c>
       <c r="C94">
-        <v>0.01971712799847498</v>
+        <v>0.04810951139699565</v>
       </c>
       <c r="D94">
-        <v>-0.05059184507551504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0138547315622649</v>
+      </c>
+      <c r="E94">
+        <v>0.00105144907936296</v>
+      </c>
+      <c r="F94">
+        <v>-0.02422727324561632</v>
+      </c>
+      <c r="G94">
+        <v>0.05295992518676472</v>
+      </c>
+      <c r="H94">
+        <v>0.1117865191620613</v>
+      </c>
+      <c r="I94">
+        <v>0.04424631002026091</v>
+      </c>
+      <c r="J94">
+        <v>0.01632248670168769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1252096614474167</v>
+        <v>0.1369012172842103</v>
       </c>
       <c r="C95">
-        <v>0.01499643656276143</v>
+        <v>0.06186042752504101</v>
       </c>
       <c r="D95">
-        <v>-0.08227208216258852</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01726749022562381</v>
+      </c>
+      <c r="E95">
+        <v>0.0130252491549117</v>
+      </c>
+      <c r="F95">
+        <v>-0.04602509565287902</v>
+      </c>
+      <c r="G95">
+        <v>-0.03365536937624647</v>
+      </c>
+      <c r="H95">
+        <v>-0.1562612674996613</v>
+      </c>
+      <c r="I95">
+        <v>-0.0419564223513394</v>
+      </c>
+      <c r="J95">
+        <v>0.04214222893246276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3763,124 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.2377437311026342</v>
+        <v>0.1821285301964405</v>
       </c>
       <c r="C97">
-        <v>0.05183223114270554</v>
+        <v>-0.03551366878185829</v>
       </c>
       <c r="D97">
-        <v>0.1301874992706599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0572655156507554</v>
+      </c>
+      <c r="E97">
+        <v>-0.4577987462377541</v>
+      </c>
+      <c r="F97">
+        <v>0.815051228121345</v>
+      </c>
+      <c r="G97">
+        <v>-0.07889437232030978</v>
+      </c>
+      <c r="H97">
+        <v>-0.02779288489337275</v>
+      </c>
+      <c r="I97">
+        <v>-0.09110178190362439</v>
+      </c>
+      <c r="J97">
+        <v>-0.01285827191292469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2635169041745051</v>
+        <v>0.2797908733056017</v>
       </c>
       <c r="C98">
-        <v>0.05398524955237752</v>
+        <v>0.05921174024302475</v>
       </c>
       <c r="D98">
-        <v>-0.02219972442036417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03494999491985541</v>
+      </c>
+      <c r="E98">
+        <v>0.2508115833449047</v>
+      </c>
+      <c r="F98">
+        <v>0.1574915039776919</v>
+      </c>
+      <c r="G98">
+        <v>0.2749208028646908</v>
+      </c>
+      <c r="H98">
+        <v>-0.2355539229203749</v>
+      </c>
+      <c r="I98">
+        <v>0.1780332574130699</v>
+      </c>
+      <c r="J98">
+        <v>-0.2701205265481054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.338323318264477</v>
+        <v>0.2067268664143887</v>
       </c>
       <c r="C99">
-        <v>-0.9160285777049585</v>
+        <v>0.2165525588762278</v>
       </c>
       <c r="D99">
-        <v>0.08971796854467347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9260188969118833</v>
+      </c>
+      <c r="E99">
+        <v>0.03950749662120038</v>
+      </c>
+      <c r="F99">
+        <v>-0.08363421979499315</v>
+      </c>
+      <c r="G99">
+        <v>0.01637953453026068</v>
+      </c>
+      <c r="H99">
+        <v>0.1041375954117569</v>
+      </c>
+      <c r="I99">
+        <v>0.001799595649780404</v>
+      </c>
+      <c r="J99">
+        <v>0.04457832255160084</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3891,60 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05402511856524148</v>
+        <v>0.05515425487778009</v>
       </c>
       <c r="C101">
-        <v>0.04349847033930446</v>
+        <v>0.002913974632862752</v>
       </c>
       <c r="D101">
-        <v>-0.004820709962505837</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0382554671479486</v>
+      </c>
+      <c r="E101">
+        <v>-0.01452659475738736</v>
+      </c>
+      <c r="F101">
+        <v>-0.03604987100905405</v>
+      </c>
+      <c r="G101">
+        <v>-0.02305641276229901</v>
+      </c>
+      <c r="H101">
+        <v>0.07822434729268848</v>
+      </c>
+      <c r="I101">
+        <v>-0.03760791128560845</v>
+      </c>
+      <c r="J101">
+        <v>0.01199487986164724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3955,28 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3987,28 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +4017,24 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
